--- a/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド(三浦).xlsx
+++ b/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド(三浦).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\C-3\documnets\外部設計（個人）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D845BA2C-C71A-4817-8C08-CE4F93E05DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1307D2C-633E-4085-94F3-9BDA716C9CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="84">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -891,6 +891,9 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>Label</t>
+  </si>
 </sst>
 </file>
 
@@ -1724,24 +1727,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1772,9 +1758,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1792,6 +1775,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1829,7 +1833,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12144,146 +12147,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -16662,146 +16665,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="96" t="s">
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="98"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="99"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="94"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -21284,146 +21287,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="96" t="s">
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="98"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="99"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="94"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -25906,146 +25909,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -30469,146 +30472,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -35031,154 +35034,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="87">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="88">
         <v>44350</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -39619,146 +39622,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -44163,152 +44166,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="88">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="89">
         <v>44351</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -48518,8 +48521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBC2C2F-A90C-4583-8AAA-10E0485E8609}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:V2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48528,156 +48531,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="89">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="90">
         <v>44351</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -51790,7 +51793,9 @@
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16"/>
@@ -51838,7 +51843,9 @@
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16"/>
@@ -51886,7 +51893,9 @@
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16"/>
@@ -51934,7 +51943,9 @@
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16"/>
@@ -51982,7 +51993,9 @@
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16"/>
@@ -52018,7 +52031,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="15"/>
-      <c r="D84" s="99" t="s">
+      <c r="D84" s="64" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="17"/>
@@ -52030,7 +52043,9 @@
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16"/>
@@ -52078,7 +52093,9 @@
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16"/>
@@ -52126,7 +52143,9 @@
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16"/>
@@ -53164,154 +53183,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="89">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="90">
         <v>44351</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -57753,154 +57772,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="87">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="88">
         <v>44350</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
